--- a/dataanalysis/data/predictions/1600/07231709_1713.xlsx
+++ b/dataanalysis/data/predictions/1600/07231709_1713.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="163">
   <si>
     <t>序号</t>
   </si>
@@ -97,6 +97,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-23</t>
   </si>
   <si>
@@ -500,12 +503,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -863,13 +860,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA86"/>
+  <dimension ref="A1:AB86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -951,19 +948,22 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>-3.26</v>
@@ -981,7 +981,7 @@
         <v>44994.84</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K2">
         <v>7</v>
@@ -1001,8 +1001,23 @@
       <c r="P2">
         <v>-0.3</v>
       </c>
+      <c r="Q2">
+        <v>4.63</v>
+      </c>
+      <c r="R2">
+        <v>5.05</v>
+      </c>
+      <c r="S2">
+        <v>6.32</v>
+      </c>
       <c r="V2" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -1010,22 +1025,25 @@
       <c r="Z2">
         <v>1.338349938392639</v>
       </c>
-      <c r="AA2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>300019</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>-0.77</v>
@@ -1043,7 +1061,7 @@
         <v>145292.97</v>
       </c>
       <c r="J3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K3">
         <v>11</v>
@@ -1063,8 +1081,23 @@
       <c r="P3">
         <v>-0.43</v>
       </c>
+      <c r="Q3">
+        <v>-1.13</v>
+      </c>
+      <c r="R3">
+        <v>23.25</v>
+      </c>
+      <c r="S3">
+        <v>0.87</v>
+      </c>
       <c r="V3" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1072,22 +1105,25 @@
       <c r="Z3">
         <v>1.191821932792664</v>
       </c>
-      <c r="AA3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>300021</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>13.38</v>
@@ -1105,7 +1141,7 @@
         <v>193853.66</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1125,8 +1161,23 @@
       <c r="P4">
         <v>-5.33</v>
       </c>
+      <c r="Q4">
+        <v>-6.05</v>
+      </c>
+      <c r="R4">
+        <v>6.35</v>
+      </c>
+      <c r="S4">
+        <v>-3.93</v>
+      </c>
       <c r="V4" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -1134,22 +1185,25 @@
       <c r="Z4">
         <v>5.670491218566895</v>
       </c>
-      <c r="AA4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>300066</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>-1.11</v>
@@ -1167,7 +1221,7 @@
         <v>73826.31</v>
       </c>
       <c r="J5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K5">
         <v>9</v>
@@ -1187,8 +1241,23 @@
       <c r="P5">
         <v>-1.03</v>
       </c>
+      <c r="Q5">
+        <v>6.25</v>
+      </c>
+      <c r="R5">
+        <v>6.79</v>
+      </c>
+      <c r="S5">
+        <v>8.81</v>
+      </c>
       <c r="V5" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1196,22 +1265,25 @@
       <c r="Z5">
         <v>0.3292492926120758</v>
       </c>
-      <c r="AA5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>300086</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>-3.96</v>
@@ -1229,7 +1301,7 @@
         <v>57905.44</v>
       </c>
       <c r="J6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1249,8 +1321,23 @@
       <c r="P6">
         <v>-1.64</v>
       </c>
+      <c r="Q6">
+        <v>20</v>
+      </c>
+      <c r="R6">
+        <v>7.56</v>
+      </c>
+      <c r="S6">
+        <v>20</v>
+      </c>
       <c r="V6" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1258,22 +1345,25 @@
       <c r="Z6">
         <v>0.9541428685188293</v>
       </c>
-      <c r="AA6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>300095</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>-11.78</v>
@@ -1291,7 +1381,7 @@
         <v>147980.71</v>
       </c>
       <c r="J7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1311,8 +1401,23 @@
       <c r="P7">
         <v>-8.43</v>
       </c>
+      <c r="Q7">
+        <v>2.23</v>
+      </c>
+      <c r="R7">
+        <v>11.65</v>
+      </c>
+      <c r="S7">
+        <v>3.74</v>
+      </c>
       <c r="V7" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1320,22 +1425,25 @@
       <c r="Z7">
         <v>1.068670988082886</v>
       </c>
-      <c r="AA7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>300158</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>19.96</v>
@@ -1353,7 +1461,7 @@
         <v>91141.28999999999</v>
       </c>
       <c r="J8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1373,8 +1481,23 @@
       <c r="P8">
         <v>2.92</v>
       </c>
+      <c r="Q8">
+        <v>9.51</v>
+      </c>
+      <c r="R8">
+        <v>6.74</v>
+      </c>
+      <c r="S8">
+        <v>14.43</v>
+      </c>
       <c r="V8" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
       </c>
       <c r="Y8">
         <v>1</v>
@@ -1382,22 +1505,25 @@
       <c r="Z8">
         <v>4.63588285446167</v>
       </c>
-      <c r="AA8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>300195</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>-3.86</v>
@@ -1415,7 +1541,7 @@
         <v>36174.4</v>
       </c>
       <c r="J9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K9">
         <v>8</v>
@@ -1435,8 +1561,23 @@
       <c r="P9">
         <v>-1.24</v>
       </c>
+      <c r="Q9">
+        <v>1.25</v>
+      </c>
+      <c r="R9">
+        <v>8.1</v>
+      </c>
+      <c r="S9">
+        <v>1.63</v>
+      </c>
       <c r="V9" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1444,22 +1585,25 @@
       <c r="Z9">
         <v>2.915822505950928</v>
       </c>
-      <c r="AA9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>300199</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>-1.64</v>
@@ -1477,7 +1621,7 @@
         <v>161419.39</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K10">
         <v>16</v>
@@ -1497,8 +1641,23 @@
       <c r="P10">
         <v>-0.68</v>
       </c>
+      <c r="Q10">
+        <v>0.48</v>
+      </c>
+      <c r="R10">
+        <v>18.96</v>
+      </c>
+      <c r="S10">
+        <v>1.94</v>
+      </c>
       <c r="V10" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1506,22 +1665,25 @@
       <c r="Z10">
         <v>7.0467529296875</v>
       </c>
-      <c r="AA10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>300254</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>6.96</v>
@@ -1539,7 +1701,7 @@
         <v>65484.38</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1559,8 +1721,23 @@
       <c r="P11">
         <v>2.47</v>
       </c>
+      <c r="Q11">
+        <v>-1.18</v>
+      </c>
+      <c r="R11">
+        <v>11.95</v>
+      </c>
+      <c r="S11">
+        <v>1.01</v>
+      </c>
       <c r="V11" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1568,22 +1745,25 @@
       <c r="Z11">
         <v>3.696054697036743</v>
       </c>
-      <c r="AA11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>300265</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>-4.42</v>
@@ -1601,7 +1781,7 @@
         <v>41382.28</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1621,8 +1801,23 @@
       <c r="P12">
         <v>-0.95</v>
       </c>
+      <c r="Q12">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="R12">
+        <v>10.72</v>
+      </c>
+      <c r="S12">
+        <v>1.13</v>
+      </c>
       <c r="V12" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1630,22 +1825,25 @@
       <c r="Z12">
         <v>0.5726972222328186</v>
       </c>
-      <c r="AA12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>300283</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>-4.45</v>
@@ -1663,7 +1861,7 @@
         <v>42008.13</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K13">
         <v>4</v>
@@ -1683,8 +1881,23 @@
       <c r="P13">
         <v>-1.65</v>
       </c>
+      <c r="Q13">
+        <v>5.73</v>
+      </c>
+      <c r="R13">
+        <v>8.18</v>
+      </c>
+      <c r="S13">
+        <v>8.92</v>
+      </c>
       <c r="V13" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1692,22 +1905,25 @@
       <c r="Z13">
         <v>0.2632769346237183</v>
       </c>
-      <c r="AA13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>300363</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>5.45</v>
@@ -1725,7 +1941,7 @@
         <v>129007.91</v>
       </c>
       <c r="J14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1745,8 +1961,23 @@
       <c r="P14">
         <v>-0.01</v>
       </c>
+      <c r="Q14">
+        <v>4.27</v>
+      </c>
+      <c r="R14">
+        <v>22.31</v>
+      </c>
+      <c r="S14">
+        <v>5.73</v>
+      </c>
       <c r="V14" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1754,22 +1985,25 @@
       <c r="Z14">
         <v>4.335355281829834</v>
       </c>
-      <c r="AA14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>300405</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>-5.21</v>
@@ -1787,7 +2021,7 @@
         <v>44857.32</v>
       </c>
       <c r="J15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1807,8 +2041,23 @@
       <c r="P15">
         <v>-0.29</v>
       </c>
+      <c r="Q15">
+        <v>-1.04</v>
+      </c>
+      <c r="R15">
+        <v>6.89</v>
+      </c>
+      <c r="S15">
+        <v>2.38</v>
+      </c>
       <c r="V15" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1816,22 +2065,25 @@
       <c r="Z15">
         <v>-0.2770866751670837</v>
       </c>
-      <c r="AA15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>300414</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>-1.35</v>
@@ -1849,7 +2101,7 @@
         <v>77351.17999999999</v>
       </c>
       <c r="J16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K16">
         <v>8</v>
@@ -1869,8 +2121,23 @@
       <c r="P16">
         <v>-0.53</v>
       </c>
+      <c r="Q16">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="R16">
+        <v>15.89</v>
+      </c>
+      <c r="S16">
+        <v>14.73</v>
+      </c>
       <c r="V16" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1878,22 +2145,25 @@
       <c r="Z16">
         <v>3.712190389633179</v>
       </c>
-      <c r="AA16" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>300436</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>4.72</v>
@@ -1911,7 +2181,7 @@
         <v>115742.57</v>
       </c>
       <c r="J17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K17">
         <v>15</v>
@@ -1931,8 +2201,23 @@
       <c r="P17">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Q17">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="R17">
+        <v>74.5</v>
+      </c>
+      <c r="S17">
+        <v>2.48</v>
+      </c>
       <c r="V17" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -1940,22 +2225,25 @@
       <c r="Z17">
         <v>1.27901554107666</v>
       </c>
-      <c r="AA17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>300469</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>-0.18</v>
@@ -1973,7 +2261,7 @@
         <v>51556.69</v>
       </c>
       <c r="J18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K18">
         <v>7</v>
@@ -1993,8 +2281,23 @@
       <c r="P18">
         <v>-0.18</v>
       </c>
+      <c r="Q18">
+        <v>2.68</v>
+      </c>
+      <c r="R18">
+        <v>46.96</v>
+      </c>
+      <c r="S18">
+        <v>4.01</v>
+      </c>
       <c r="V18" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>1</v>
@@ -2002,22 +2305,25 @@
       <c r="Z18">
         <v>5.042715549468994</v>
       </c>
-      <c r="AA18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>300485</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>-4.87</v>
@@ -2035,7 +2341,7 @@
         <v>80925.53</v>
       </c>
       <c r="J19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2055,8 +2361,23 @@
       <c r="P19">
         <v>-1.5</v>
       </c>
+      <c r="Q19">
+        <v>-3.48</v>
+      </c>
+      <c r="R19">
+        <v>16.34</v>
+      </c>
+      <c r="S19">
+        <v>3.29</v>
+      </c>
       <c r="V19" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2064,22 +2385,25 @@
       <c r="Z19">
         <v>0.9949197173118591</v>
       </c>
-      <c r="AA19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>300502</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>-1.42</v>
@@ -2097,7 +2421,7 @@
         <v>747901.7</v>
       </c>
       <c r="J20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K20">
         <v>21</v>
@@ -2117,8 +2441,23 @@
       <c r="P20">
         <v>-0.15</v>
       </c>
+      <c r="Q20">
+        <v>-0.8</v>
+      </c>
+      <c r="R20">
+        <v>177.33</v>
+      </c>
+      <c r="S20">
+        <v>1.8</v>
+      </c>
       <c r="V20" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2126,22 +2465,25 @@
       <c r="Z20">
         <v>4.294321537017822</v>
       </c>
-      <c r="AA20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>300522</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>-5.12</v>
@@ -2159,7 +2501,7 @@
         <v>42353.31</v>
       </c>
       <c r="J21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K21">
         <v>7</v>
@@ -2179,8 +2521,23 @@
       <c r="P21">
         <v>-0.68</v>
       </c>
+      <c r="Q21">
+        <v>-0.19</v>
+      </c>
+      <c r="R21">
+        <v>15.85</v>
+      </c>
+      <c r="S21">
+        <v>1.73</v>
+      </c>
       <c r="V21" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2188,22 +2545,25 @@
       <c r="Z21">
         <v>14.00259399414062</v>
       </c>
-      <c r="AA21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>300527</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>-7.12</v>
@@ -2221,7 +2581,7 @@
         <v>107108.15</v>
       </c>
       <c r="J22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K22">
         <v>17</v>
@@ -2241,8 +2601,23 @@
       <c r="P22">
         <v>-1.2</v>
       </c>
+      <c r="Q22">
+        <v>1.32</v>
+      </c>
+      <c r="R22">
+        <v>11.55</v>
+      </c>
+      <c r="S22">
+        <v>1.76</v>
+      </c>
       <c r="V22" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>1</v>
@@ -2250,22 +2625,25 @@
       <c r="Z22">
         <v>5.509311199188232</v>
       </c>
-      <c r="AA22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>300528</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>1.02</v>
@@ -2283,7 +2661,7 @@
         <v>42766.09</v>
       </c>
       <c r="J23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2303,8 +2681,23 @@
       <c r="P23">
         <v>-0.19</v>
       </c>
+      <c r="Q23">
+        <v>20.02</v>
+      </c>
+      <c r="R23">
+        <v>14.27</v>
+      </c>
+      <c r="S23">
+        <v>20.02</v>
+      </c>
       <c r="V23" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
       </c>
       <c r="Y23">
         <v>1</v>
@@ -2312,22 +2705,25 @@
       <c r="Z23">
         <v>5.696113586425781</v>
       </c>
-      <c r="AA23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>300533</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>0.38</v>
@@ -2345,7 +2741,7 @@
         <v>66948.64999999999</v>
       </c>
       <c r="J24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K24">
         <v>21</v>
@@ -2365,8 +2761,23 @@
       <c r="P24">
         <v>0.52</v>
       </c>
+      <c r="Q24">
+        <v>-2.62</v>
+      </c>
+      <c r="R24">
+        <v>36.85</v>
+      </c>
+      <c r="S24">
+        <v>0.74</v>
+      </c>
       <c r="V24" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2374,22 +2785,25 @@
       <c r="Z24">
         <v>2.213043689727783</v>
       </c>
-      <c r="AA24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>300537</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>-2.59</v>
@@ -2407,7 +2821,7 @@
         <v>39644.41</v>
       </c>
       <c r="J25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K25">
         <v>18</v>
@@ -2427,8 +2841,23 @@
       <c r="P25">
         <v>-1.57</v>
       </c>
+      <c r="Q25">
+        <v>1.8</v>
+      </c>
+      <c r="R25">
+        <v>25.26</v>
+      </c>
+      <c r="S25">
+        <v>3.27</v>
+      </c>
       <c r="V25" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2436,22 +2865,25 @@
       <c r="Z25">
         <v>1.932382106781006</v>
       </c>
-      <c r="AA25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>300548</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>2.84</v>
@@ -2469,7 +2901,7 @@
         <v>240721.82</v>
       </c>
       <c r="J26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K26">
         <v>7</v>
@@ -2489,8 +2921,23 @@
       <c r="P26">
         <v>0.6</v>
       </c>
+      <c r="Q26">
+        <v>-6.41</v>
+      </c>
+      <c r="R26">
+        <v>92.18000000000001</v>
+      </c>
+      <c r="S26">
+        <v>3.23</v>
+      </c>
       <c r="V26" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2498,22 +2945,25 @@
       <c r="Z26">
         <v>4.775976657867432</v>
       </c>
-      <c r="AA26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>300564</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>19.99</v>
@@ -2531,7 +2981,7 @@
         <v>105478.03</v>
       </c>
       <c r="J27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2551,8 +3001,23 @@
       <c r="P27">
         <v>-13.74</v>
       </c>
+      <c r="Q27">
+        <v>-10.11</v>
+      </c>
+      <c r="R27">
+        <v>23.85</v>
+      </c>
+      <c r="S27">
+        <v>-4.71</v>
+      </c>
       <c r="V27" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>1</v>
@@ -2560,22 +3025,25 @@
       <c r="Z27">
         <v>6.779088020324707</v>
       </c>
-      <c r="AA27" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>300581</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>-4.42</v>
@@ -2593,7 +3061,7 @@
         <v>119842.71</v>
       </c>
       <c r="J28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2613,8 +3081,23 @@
       <c r="P28">
         <v>-1.07</v>
       </c>
+      <c r="Q28">
+        <v>4.18</v>
+      </c>
+      <c r="R28">
+        <v>21.59</v>
+      </c>
+      <c r="S28">
+        <v>6.09</v>
+      </c>
       <c r="V28" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2622,22 +3105,25 @@
       <c r="Z28">
         <v>4.90838098526001</v>
       </c>
-      <c r="AA28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>300591</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>-10.62</v>
@@ -2655,7 +3141,7 @@
         <v>124662.25</v>
       </c>
       <c r="J29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K29">
         <v>22</v>
@@ -2675,8 +3161,23 @@
       <c r="P29">
         <v>-3.55</v>
       </c>
+      <c r="Q29">
+        <v>-0.52</v>
+      </c>
+      <c r="R29">
+        <v>11.94</v>
+      </c>
+      <c r="S29">
+        <v>2.75</v>
+      </c>
       <c r="V29" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -2684,22 +3185,25 @@
       <c r="Z29">
         <v>2.330960512161255</v>
       </c>
-      <c r="AA29" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>300600</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>-6.63</v>
@@ -2717,7 +3221,7 @@
         <v>39474.78</v>
       </c>
       <c r="J30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K30">
         <v>19</v>
@@ -2737,8 +3241,23 @@
       <c r="P30">
         <v>-0.63</v>
       </c>
+      <c r="Q30">
+        <v>1.15</v>
+      </c>
+      <c r="R30">
+        <v>14.98</v>
+      </c>
+      <c r="S30">
+        <v>1.35</v>
+      </c>
       <c r="V30" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -2746,22 +3265,25 @@
       <c r="Z30">
         <v>5.965145111083984</v>
       </c>
-      <c r="AA30" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>300617</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>-12.59</v>
@@ -2779,7 +3301,7 @@
         <v>115711.33</v>
       </c>
       <c r="J31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2799,8 +3321,23 @@
       <c r="P31">
         <v>-1.77</v>
       </c>
+      <c r="Q31">
+        <v>-3.14</v>
+      </c>
+      <c r="R31">
+        <v>38.7</v>
+      </c>
+      <c r="S31">
+        <v>0.44</v>
+      </c>
       <c r="V31" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -2808,22 +3345,25 @@
       <c r="Z31">
         <v>0.4680603444576263</v>
       </c>
-      <c r="AA31" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>300631</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32">
         <v>6.65</v>
@@ -2841,7 +3381,7 @@
         <v>98389.91</v>
       </c>
       <c r="J32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K32">
         <v>8</v>
@@ -2861,8 +3401,23 @@
       <c r="P32">
         <v>0.43</v>
       </c>
+      <c r="Q32">
+        <v>2.03</v>
+      </c>
+      <c r="R32">
+        <v>37</v>
+      </c>
+      <c r="S32">
+        <v>7.28</v>
+      </c>
       <c r="V32" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
       </c>
       <c r="Y32">
         <v>1</v>
@@ -2870,22 +3425,25 @@
       <c r="Z32">
         <v>4.403493404388428</v>
       </c>
-      <c r="AA32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>300644</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>-4.69</v>
@@ -2903,7 +3461,7 @@
         <v>55873.43</v>
       </c>
       <c r="J33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K33">
         <v>5</v>
@@ -2923,8 +3481,23 @@
       <c r="P33">
         <v>-1.1</v>
       </c>
+      <c r="Q33">
+        <v>-0.77</v>
+      </c>
+      <c r="R33">
+        <v>32.97</v>
+      </c>
+      <c r="S33">
+        <v>1.35</v>
+      </c>
       <c r="V33" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -2932,22 +3505,25 @@
       <c r="Z33">
         <v>10.23021697998047</v>
       </c>
-      <c r="AA33" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>300665</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>-11.8</v>
@@ -2965,7 +3541,7 @@
         <v>55328.43</v>
       </c>
       <c r="J34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2985,8 +3561,23 @@
       <c r="P34">
         <v>-1.26</v>
       </c>
+      <c r="Q34">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="R34">
+        <v>10.2</v>
+      </c>
+      <c r="S34">
+        <v>1.09</v>
+      </c>
       <c r="V34" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -2994,22 +3585,25 @@
       <c r="Z34">
         <v>2.541421413421631</v>
       </c>
-      <c r="AA34" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>300683</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>7.18</v>
@@ -3027,7 +3621,7 @@
         <v>102495.64</v>
       </c>
       <c r="J35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -3047,8 +3641,23 @@
       <c r="P35">
         <v>-0.67</v>
       </c>
+      <c r="Q35">
+        <v>-2.63</v>
+      </c>
+      <c r="R35">
+        <v>46.2</v>
+      </c>
+      <c r="S35">
+        <v>5.6</v>
+      </c>
       <c r="V35" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -3056,22 +3665,25 @@
       <c r="Z35">
         <v>1.89270007610321</v>
       </c>
-      <c r="AA35" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>300697</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>-5.08</v>
@@ -3089,7 +3701,7 @@
         <v>39882.84</v>
       </c>
       <c r="J36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -3109,8 +3721,23 @@
       <c r="P36">
         <v>-0.51</v>
       </c>
+      <c r="Q36">
+        <v>2.29</v>
+      </c>
+      <c r="R36">
+        <v>14.84</v>
+      </c>
+      <c r="S36">
+        <v>3.06</v>
+      </c>
       <c r="V36" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -3118,22 +3745,25 @@
       <c r="Z36">
         <v>4.166077613830566</v>
       </c>
-      <c r="AA36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>300703</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>0.89</v>
@@ -3151,7 +3781,7 @@
         <v>25193.28</v>
       </c>
       <c r="J37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K37">
         <v>9</v>
@@ -3171,8 +3801,23 @@
       <c r="P37">
         <v>-0.26</v>
       </c>
+      <c r="Q37">
+        <v>-3.13</v>
+      </c>
+      <c r="R37">
+        <v>25.15</v>
+      </c>
+      <c r="S37">
+        <v>0.96</v>
+      </c>
       <c r="V37" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
       </c>
       <c r="Y37">
         <v>1</v>
@@ -3180,22 +3825,25 @@
       <c r="Z37">
         <v>3.038846731185913</v>
       </c>
-      <c r="AA37" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>300722</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>-8.84</v>
@@ -3213,7 +3861,7 @@
         <v>149084.65</v>
       </c>
       <c r="J38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K38">
         <v>3</v>
@@ -3233,8 +3881,23 @@
       <c r="P38">
         <v>-0.28</v>
       </c>
+      <c r="Q38">
+        <v>-1.2</v>
+      </c>
+      <c r="R38">
+        <v>39.38</v>
+      </c>
+      <c r="S38">
+        <v>0.79</v>
+      </c>
       <c r="V38" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -3242,22 +3905,25 @@
       <c r="Z38">
         <v>4.625995635986328</v>
       </c>
-      <c r="AA38" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>300748</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39">
         <v>-0.64</v>
@@ -3275,7 +3941,7 @@
         <v>155873.15</v>
       </c>
       <c r="J39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K39">
         <v>9</v>
@@ -3295,8 +3961,23 @@
       <c r="P39">
         <v>-0.24</v>
       </c>
+      <c r="Q39">
+        <v>9.94</v>
+      </c>
+      <c r="R39">
+        <v>29.79</v>
+      </c>
+      <c r="S39">
+        <v>12.54</v>
+      </c>
       <c r="V39" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
       </c>
       <c r="Y39">
         <v>1</v>
@@ -3304,22 +3985,25 @@
       <c r="Z39">
         <v>4.080671310424805</v>
       </c>
-      <c r="AA39" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>300767</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>-3.87</v>
@@ -3337,7 +4021,7 @@
         <v>39150.36</v>
       </c>
       <c r="J40" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -3357,8 +4041,23 @@
       <c r="P40">
         <v>-0.7</v>
       </c>
+      <c r="Q40">
+        <v>-1.44</v>
+      </c>
+      <c r="R40">
+        <v>13.88</v>
+      </c>
+      <c r="S40">
+        <v>-0.14</v>
+      </c>
       <c r="V40" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3366,22 +4065,25 @@
       <c r="Z40">
         <v>4.959269523620605</v>
       </c>
-      <c r="AA40" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>300803</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <v>2.26</v>
@@ -3399,7 +4101,7 @@
         <v>660087.8100000001</v>
       </c>
       <c r="J41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K41">
         <v>19</v>
@@ -3419,8 +4121,23 @@
       <c r="P41">
         <v>0.35</v>
       </c>
+      <c r="Q41">
+        <v>7.76</v>
+      </c>
+      <c r="R41">
+        <v>95.58</v>
+      </c>
+      <c r="S41">
+        <v>8.529999999999999</v>
+      </c>
       <c r="V41" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -3428,22 +4145,25 @@
       <c r="Z41">
         <v>1.761049509048462</v>
       </c>
-      <c r="AA41" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>300835</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42">
         <v>6.6</v>
@@ -3461,7 +4181,7 @@
         <v>85797.36</v>
       </c>
       <c r="J42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -3481,8 +4201,23 @@
       <c r="P42">
         <v>-0.13</v>
       </c>
+      <c r="Q42">
+        <v>15.14</v>
+      </c>
+      <c r="R42">
+        <v>63.58</v>
+      </c>
+      <c r="S42">
+        <v>20.01</v>
+      </c>
       <c r="V42" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
       </c>
       <c r="Y42">
         <v>1</v>
@@ -3490,22 +4225,25 @@
       <c r="Z42">
         <v>7.000485420227051</v>
       </c>
-      <c r="AA42" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>300847</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43">
         <v>-5.67</v>
@@ -3523,7 +4261,7 @@
         <v>40190.82</v>
       </c>
       <c r="J43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -3543,8 +4281,23 @@
       <c r="P43">
         <v>-0.99</v>
       </c>
+      <c r="Q43">
+        <v>1.14</v>
+      </c>
+      <c r="R43">
+        <v>19.56</v>
+      </c>
+      <c r="S43">
+        <v>1.29</v>
+      </c>
       <c r="V43" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
       </c>
       <c r="Y43">
         <v>1</v>
@@ -3552,22 +4305,25 @@
       <c r="Z43">
         <v>1.75052273273468</v>
       </c>
-      <c r="AA43" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>300865</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>-1.19</v>
@@ -3585,7 +4341,7 @@
         <v>108763.35</v>
       </c>
       <c r="J44" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -3605,8 +4361,23 @@
       <c r="P44">
         <v>-2.6</v>
       </c>
+      <c r="Q44">
+        <v>-6.58</v>
+      </c>
+      <c r="R44">
+        <v>43.18</v>
+      </c>
+      <c r="S44">
+        <v>-0.35</v>
+      </c>
       <c r="V44" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -3614,22 +4385,25 @@
       <c r="Z44">
         <v>7.084789276123047</v>
       </c>
-      <c r="AA44" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>300881</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>9.970000000000001</v>
@@ -3647,7 +4421,7 @@
         <v>72723.96000000001</v>
       </c>
       <c r="J45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -3667,8 +4441,23 @@
       <c r="P45">
         <v>0.51</v>
       </c>
+      <c r="Q45">
+        <v>-3.52</v>
+      </c>
+      <c r="R45">
+        <v>41.49</v>
+      </c>
+      <c r="S45">
+        <v>-1.24</v>
+      </c>
       <c r="V45" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -3676,22 +4465,25 @@
       <c r="Z45">
         <v>4.082201480865479</v>
       </c>
-      <c r="AA45" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46">
         <v>300885</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46">
         <v>11</v>
@@ -3709,7 +4501,7 @@
         <v>55472.35</v>
       </c>
       <c r="J46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -3729,8 +4521,23 @@
       <c r="P46">
         <v>1.51</v>
       </c>
+      <c r="Q46">
+        <v>4.73</v>
+      </c>
+      <c r="R46">
+        <v>20.41</v>
+      </c>
+      <c r="S46">
+        <v>14.92</v>
+      </c>
       <c r="V46" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -3738,22 +4545,25 @@
       <c r="Z46">
         <v>4.349998474121094</v>
       </c>
-      <c r="AA46" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47">
         <v>300897</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>1.88</v>
@@ -3771,7 +4581,7 @@
         <v>40890.32</v>
       </c>
       <c r="J47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K47">
         <v>7</v>
@@ -3791,8 +4601,23 @@
       <c r="P47">
         <v>0.64</v>
       </c>
+      <c r="Q47">
+        <v>-0.8</v>
+      </c>
+      <c r="R47">
+        <v>29.58</v>
+      </c>
+      <c r="S47">
+        <v>3.07</v>
+      </c>
       <c r="V47" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -3800,22 +4625,25 @@
       <c r="Z47">
         <v>5.535625457763672</v>
       </c>
-      <c r="AA47" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48">
         <v>300950</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48">
         <v>0.17</v>
@@ -3833,7 +4661,7 @@
         <v>51900.89</v>
       </c>
       <c r="J48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K48">
         <v>7</v>
@@ -3853,8 +4681,23 @@
       <c r="P48">
         <v>0.64</v>
       </c>
+      <c r="Q48">
+        <v>-0.67</v>
+      </c>
+      <c r="R48">
+        <v>29.83</v>
+      </c>
+      <c r="S48">
+        <v>0.54</v>
+      </c>
       <c r="V48" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
       </c>
       <c r="Y48">
         <v>0</v>
@@ -3862,22 +4705,25 @@
       <c r="Z48">
         <v>4.438825607299805</v>
       </c>
-      <c r="AA48" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>301007</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49">
         <v>-0.67</v>
@@ -3895,7 +4741,7 @@
         <v>28185.28</v>
       </c>
       <c r="J49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K49">
         <v>3</v>
@@ -3915,8 +4761,23 @@
       <c r="P49">
         <v>0.28</v>
       </c>
+      <c r="Q49">
+        <v>1.17</v>
+      </c>
+      <c r="R49">
+        <v>33.66</v>
+      </c>
+      <c r="S49">
+        <v>3.89</v>
+      </c>
       <c r="V49" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -3924,22 +4785,25 @@
       <c r="Z49">
         <v>5.85134744644165</v>
       </c>
-      <c r="AA49" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50">
         <v>301012</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50">
         <v>-3.7</v>
@@ -3957,7 +4821,7 @@
         <v>48882.28</v>
       </c>
       <c r="J50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K50">
         <v>5</v>
@@ -3977,8 +4841,23 @@
       <c r="P50">
         <v>-2.94</v>
       </c>
+      <c r="Q50">
+        <v>0.14</v>
+      </c>
+      <c r="R50">
+        <v>22.39</v>
+      </c>
+      <c r="S50">
+        <v>1.17</v>
+      </c>
       <c r="V50" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -3986,22 +4865,25 @@
       <c r="Z50">
         <v>3.457783222198486</v>
       </c>
-      <c r="AA50" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51">
         <v>301038</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51">
         <v>20.02</v>
@@ -4019,7 +4901,7 @@
         <v>45303.83</v>
       </c>
       <c r="J51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -4039,8 +4921,23 @@
       <c r="P51">
         <v>0.51</v>
       </c>
+      <c r="Q51">
+        <v>19.99</v>
+      </c>
+      <c r="R51">
+        <v>33.38</v>
+      </c>
+      <c r="S51">
+        <v>19.99</v>
+      </c>
       <c r="V51" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W51">
+        <v>1</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
       </c>
       <c r="Y51">
         <v>1</v>
@@ -4048,22 +4945,25 @@
       <c r="Z51">
         <v>19.46900749206543</v>
       </c>
-      <c r="AA51" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AA51">
+        <v>1</v>
+      </c>
+      <c r="AB51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>301120</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52">
         <v>-4.68</v>
@@ -4081,7 +4981,7 @@
         <v>32917.78</v>
       </c>
       <c r="J52" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -4101,8 +5001,23 @@
       <c r="P52">
         <v>-1.28</v>
       </c>
+      <c r="Q52">
+        <v>1.66</v>
+      </c>
+      <c r="R52">
+        <v>12.24</v>
+      </c>
+      <c r="S52">
+        <v>1.75</v>
+      </c>
       <c r="V52" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
       </c>
       <c r="Y52">
         <v>0</v>
@@ -4110,22 +5025,25 @@
       <c r="Z52">
         <v>0.1880716979503632</v>
       </c>
-      <c r="AA52" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53">
         <v>301132</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E53">
         <v>-1.92</v>
@@ -4143,7 +5061,7 @@
         <v>33100.85</v>
       </c>
       <c r="J53" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K53">
         <v>5</v>
@@ -4163,8 +5081,23 @@
       <c r="P53">
         <v>0.61</v>
       </c>
+      <c r="Q53">
+        <v>0.52</v>
+      </c>
+      <c r="R53">
+        <v>37.16</v>
+      </c>
+      <c r="S53">
+        <v>2.57</v>
+      </c>
       <c r="V53" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
       </c>
       <c r="Y53">
         <v>1</v>
@@ -4172,22 +5105,25 @@
       <c r="Z53">
         <v>6.531132698059082</v>
       </c>
-      <c r="AA53" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54">
         <v>301141</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E54">
         <v>0.82</v>
@@ -4205,7 +5141,7 @@
         <v>64516.63</v>
       </c>
       <c r="J54" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K54">
         <v>19</v>
@@ -4225,8 +5161,23 @@
       <c r="P54">
         <v>-0.61</v>
       </c>
+      <c r="Q54">
+        <v>3.98</v>
+      </c>
+      <c r="R54">
+        <v>73.2</v>
+      </c>
+      <c r="S54">
+        <v>7.89</v>
+      </c>
       <c r="V54" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>1</v>
       </c>
       <c r="Y54">
         <v>0</v>
@@ -4234,22 +5185,25 @@
       <c r="Z54">
         <v>4.716227531433105</v>
       </c>
-      <c r="AA54" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55">
         <v>301151</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E55">
         <v>-5.67</v>
@@ -4267,7 +5221,7 @@
         <v>110136.18</v>
       </c>
       <c r="J55" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -4287,8 +5241,23 @@
       <c r="P55">
         <v>-10.7</v>
       </c>
+      <c r="Q55">
+        <v>1.49</v>
+      </c>
+      <c r="R55">
+        <v>26.47</v>
+      </c>
+      <c r="S55">
+        <v>9.789999999999999</v>
+      </c>
       <c r="V55" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>1</v>
       </c>
       <c r="Y55">
         <v>0</v>
@@ -4296,22 +5265,25 @@
       <c r="Z55">
         <v>5.054039478302002</v>
       </c>
-      <c r="AA55" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>301159</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E56">
         <v>2.36</v>
@@ -4329,7 +5301,7 @@
         <v>33220.02</v>
       </c>
       <c r="J56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -4349,8 +5321,23 @@
       <c r="P56">
         <v>0.78</v>
       </c>
+      <c r="Q56">
+        <v>-4.13</v>
+      </c>
+      <c r="R56">
+        <v>39.23</v>
+      </c>
+      <c r="S56">
+        <v>-0.71</v>
+      </c>
       <c r="V56" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
       </c>
       <c r="Y56">
         <v>0</v>
@@ -4358,22 +5345,25 @@
       <c r="Z56">
         <v>0.2909927666187286</v>
       </c>
-      <c r="AA56" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>301161</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E57">
         <v>-16.05</v>
@@ -4391,7 +5381,7 @@
         <v>117401.65</v>
       </c>
       <c r="J57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -4411,8 +5401,23 @@
       <c r="P57">
         <v>-12.46</v>
       </c>
+      <c r="Q57">
+        <v>-0.03</v>
+      </c>
+      <c r="R57">
+        <v>31.77</v>
+      </c>
+      <c r="S57">
+        <v>6.57</v>
+      </c>
       <c r="V57" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
       </c>
       <c r="Y57">
         <v>0</v>
@@ -4420,22 +5425,25 @@
       <c r="Z57">
         <v>0.03202121332287788</v>
       </c>
-      <c r="AA57" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>301165</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E58">
         <v>2.22</v>
@@ -4453,7 +5461,7 @@
         <v>56843.93</v>
       </c>
       <c r="J58" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K58">
         <v>6</v>
@@ -4473,8 +5481,23 @@
       <c r="P58">
         <v>0.05</v>
       </c>
+      <c r="Q58">
+        <v>-4.21</v>
+      </c>
+      <c r="R58">
+        <v>63.58</v>
+      </c>
+      <c r="S58">
+        <v>0.63</v>
+      </c>
       <c r="V58" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
       </c>
       <c r="Y58">
         <v>0</v>
@@ -4482,22 +5505,25 @@
       <c r="Z58">
         <v>1.423322081565857</v>
       </c>
-      <c r="AA58" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>301183</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59">
         <v>-1.96</v>
@@ -4515,7 +5541,7 @@
         <v>45294.68</v>
       </c>
       <c r="J59" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K59">
         <v>6</v>
@@ -4535,8 +5561,23 @@
       <c r="P59">
         <v>0</v>
       </c>
+      <c r="Q59">
+        <v>-2.43</v>
+      </c>
+      <c r="R59">
+        <v>69.59</v>
+      </c>
+      <c r="S59">
+        <v>2.34</v>
+      </c>
       <c r="V59" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
       </c>
       <c r="Y59">
         <v>0</v>
@@ -4544,22 +5585,25 @@
       <c r="Z59">
         <v>6.764960765838623</v>
       </c>
-      <c r="AA59" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60">
         <v>301201</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60">
         <v>-13.12</v>
@@ -4577,7 +5621,7 @@
         <v>63493.34</v>
       </c>
       <c r="J60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -4597,8 +5641,23 @@
       <c r="P60">
         <v>0.34</v>
       </c>
+      <c r="Q60">
+        <v>-1.27</v>
+      </c>
+      <c r="R60">
+        <v>28.32</v>
+      </c>
+      <c r="S60">
+        <v>2.53</v>
+      </c>
       <c r="V60" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
       </c>
       <c r="Y60">
         <v>0</v>
@@ -4606,22 +5665,25 @@
       <c r="Z60">
         <v>1.653637409210205</v>
       </c>
-      <c r="AA60" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27">
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61">
         <v>301217</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E61">
         <v>-2.45</v>
@@ -4639,7 +5701,7 @@
         <v>93885.45</v>
       </c>
       <c r="J61" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K61">
         <v>13</v>
@@ -4659,8 +5721,23 @@
       <c r="P61">
         <v>-0.36</v>
       </c>
+      <c r="Q61">
+        <v>20.02</v>
+      </c>
+      <c r="R61">
+        <v>23.44</v>
+      </c>
+      <c r="S61">
+        <v>20.02</v>
+      </c>
       <c r="V61" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>1</v>
       </c>
       <c r="Y61">
         <v>0</v>
@@ -4668,22 +5745,25 @@
       <c r="Z61">
         <v>6.497476577758789</v>
       </c>
-      <c r="AA61" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27">
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C62">
         <v>301306</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E62">
         <v>0.46</v>
@@ -4701,7 +5781,7 @@
         <v>36918.86</v>
       </c>
       <c r="J62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -4721,8 +5801,23 @@
       <c r="P62">
         <v>0.93</v>
       </c>
+      <c r="Q62">
+        <v>-1.26</v>
+      </c>
+      <c r="R62">
+        <v>57.85</v>
+      </c>
+      <c r="S62">
+        <v>2.83</v>
+      </c>
       <c r="V62" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
       </c>
       <c r="Y62">
         <v>0</v>
@@ -4730,22 +5825,25 @@
       <c r="Z62">
         <v>0.4491531848907471</v>
       </c>
-      <c r="AA62" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27">
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C63">
         <v>301357</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E63">
         <v>-9.949999999999999</v>
@@ -4763,7 +5861,7 @@
         <v>77317.94</v>
       </c>
       <c r="J63" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K63">
         <v>6</v>
@@ -4783,8 +5881,23 @@
       <c r="P63">
         <v>-1.95</v>
       </c>
+      <c r="Q63">
+        <v>1.13</v>
+      </c>
+      <c r="R63">
+        <v>82.04000000000001</v>
+      </c>
+      <c r="S63">
+        <v>1.13</v>
+      </c>
       <c r="V63" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
       </c>
       <c r="Y63">
         <v>0</v>
@@ -4792,22 +5905,25 @@
       <c r="Z63">
         <v>2.959360599517822</v>
       </c>
-      <c r="AA63" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27">
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C64">
         <v>301377</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E64">
         <v>4.98</v>
@@ -4825,7 +5941,7 @@
         <v>61324.86</v>
       </c>
       <c r="J64" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K64">
         <v>7</v>
@@ -4845,8 +5961,23 @@
       <c r="P64">
         <v>-0.61</v>
       </c>
+      <c r="Q64">
+        <v>-2.01</v>
+      </c>
+      <c r="R64">
+        <v>49.55</v>
+      </c>
+      <c r="S64">
+        <v>3.97</v>
+      </c>
       <c r="V64" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
       </c>
       <c r="Y64">
         <v>0</v>
@@ -4854,22 +5985,25 @@
       <c r="Z64">
         <v>4.984676361083984</v>
       </c>
-      <c r="AA64" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27">
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C65">
         <v>301389</v>
       </c>
       <c r="D65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E65">
         <v>0.5</v>
@@ -4887,7 +6021,7 @@
         <v>42311.3</v>
       </c>
       <c r="J65" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K65">
         <v>12</v>
@@ -4907,8 +6041,23 @@
       <c r="P65">
         <v>-2.33</v>
       </c>
+      <c r="Q65">
+        <v>4.34</v>
+      </c>
+      <c r="R65">
+        <v>33.9</v>
+      </c>
+      <c r="S65">
+        <v>5.9</v>
+      </c>
       <c r="V65" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
       </c>
       <c r="Y65">
         <v>0</v>
@@ -4916,22 +6065,25 @@
       <c r="Z65">
         <v>-0.639309287071228</v>
       </c>
-      <c r="AA65" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27">
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C66">
         <v>301408</v>
       </c>
       <c r="D66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E66">
         <v>2.78</v>
@@ -4949,7 +6101,7 @@
         <v>42680.98</v>
       </c>
       <c r="J66" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -4969,8 +6121,23 @@
       <c r="P66">
         <v>1.07</v>
       </c>
+      <c r="Q66">
+        <v>-1.62</v>
+      </c>
+      <c r="R66">
+        <v>14.91</v>
+      </c>
+      <c r="S66">
+        <v>0.74</v>
+      </c>
       <c r="V66" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
       </c>
       <c r="Y66">
         <v>0</v>
@@ -4978,22 +6145,25 @@
       <c r="Z66">
         <v>9.226021766662598</v>
       </c>
-      <c r="AA66" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27">
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C67">
         <v>301421</v>
       </c>
       <c r="D67" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67">
         <v>1.6</v>
@@ -5011,7 +6181,7 @@
         <v>53596.31</v>
       </c>
       <c r="J67" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K67">
         <v>23</v>
@@ -5031,8 +6201,23 @@
       <c r="P67">
         <v>0.27</v>
       </c>
+      <c r="Q67">
+        <v>4.28</v>
+      </c>
+      <c r="R67">
+        <v>80.45</v>
+      </c>
+      <c r="S67">
+        <v>5.72</v>
+      </c>
       <c r="V67" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
       </c>
       <c r="Y67">
         <v>0</v>
@@ -5040,22 +6225,25 @@
       <c r="Z67">
         <v>4.689781665802002</v>
       </c>
-      <c r="AA67" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27">
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C68">
         <v>301511</v>
       </c>
       <c r="D68" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68">
         <v>-3.45</v>
@@ -5073,7 +6261,7 @@
         <v>90419.42</v>
       </c>
       <c r="J68" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K68">
         <v>22</v>
@@ -5093,8 +6281,23 @@
       <c r="P68">
         <v>-0.16</v>
       </c>
+      <c r="Q68">
+        <v>7.82</v>
+      </c>
+      <c r="R68">
+        <v>29.37</v>
+      </c>
+      <c r="S68">
+        <v>10.37</v>
+      </c>
       <c r="V68" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>1</v>
       </c>
       <c r="Y68">
         <v>0</v>
@@ -5102,22 +6305,25 @@
       <c r="Z68">
         <v>7.063296318054199</v>
       </c>
-      <c r="AA68" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27">
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C69">
         <v>301526</v>
       </c>
       <c r="D69" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E69">
         <v>-2.24</v>
@@ -5135,7 +6341,7 @@
         <v>51664.88</v>
       </c>
       <c r="J69" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K69">
         <v>12</v>
@@ -5155,8 +6361,23 @@
       <c r="P69">
         <v>-1.15</v>
       </c>
+      <c r="Q69">
+        <v>1.87</v>
+      </c>
+      <c r="R69">
+        <v>4.99</v>
+      </c>
+      <c r="S69">
+        <v>3.74</v>
+      </c>
       <c r="V69" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
       </c>
       <c r="Y69">
         <v>0</v>
@@ -5164,22 +6385,25 @@
       <c r="Z69">
         <v>1.375214457511902</v>
       </c>
-      <c r="AA69" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27">
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C70">
         <v>301529</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E70">
         <v>9.199999999999999</v>
@@ -5197,7 +6421,7 @@
         <v>49342.47</v>
       </c>
       <c r="J70" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K70">
         <v>3</v>
@@ -5217,8 +6441,23 @@
       <c r="P70">
         <v>-1.61</v>
       </c>
+      <c r="Q70">
+        <v>1.69</v>
+      </c>
+      <c r="R70">
+        <v>58.22</v>
+      </c>
+      <c r="S70">
+        <v>6.85</v>
+      </c>
       <c r="V70" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
       </c>
       <c r="Y70">
         <v>0</v>
@@ -5226,22 +6465,25 @@
       <c r="Z70">
         <v>3.591674566268921</v>
       </c>
-      <c r="AA70" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27">
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C71">
         <v>301626</v>
       </c>
       <c r="D71" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E71">
         <v>5.72</v>
@@ -5259,7 +6501,7 @@
         <v>47861.56</v>
       </c>
       <c r="J71" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -5279,8 +6521,23 @@
       <c r="P71">
         <v>1.17</v>
       </c>
+      <c r="Q71">
+        <v>2.92</v>
+      </c>
+      <c r="R71">
+        <v>142.88</v>
+      </c>
+      <c r="S71">
+        <v>4.44</v>
+      </c>
       <c r="V71" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
       </c>
       <c r="Y71">
         <v>1</v>
@@ -5288,22 +6545,25 @@
       <c r="Z71">
         <v>7.29057502746582</v>
       </c>
-      <c r="AA71" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27">
+      <c r="AA71">
+        <v>1</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C72">
         <v>688062</v>
       </c>
       <c r="D72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E72">
         <v>0.03</v>
@@ -5321,7 +6581,7 @@
         <v>68929.67999999999</v>
       </c>
       <c r="J72" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K72">
         <v>15</v>
@@ -5341,8 +6601,23 @@
       <c r="P72">
         <v>-0.97</v>
       </c>
+      <c r="Q72">
+        <v>-0.54</v>
+      </c>
+      <c r="R72">
+        <v>34.42</v>
+      </c>
+      <c r="S72">
+        <v>2.99</v>
+      </c>
       <c r="V72" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
       </c>
       <c r="Y72">
         <v>0</v>
@@ -5350,22 +6625,25 @@
       <c r="Z72">
         <v>4.616966247558594</v>
       </c>
-      <c r="AA72" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27">
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C73">
         <v>688084</v>
       </c>
       <c r="D73" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E73">
         <v>0.65</v>
@@ -5383,7 +6661,7 @@
         <v>33338.85</v>
       </c>
       <c r="J73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K73">
         <v>3</v>
@@ -5403,8 +6681,23 @@
       <c r="P73">
         <v>-0.08</v>
       </c>
+      <c r="Q73">
+        <v>-3.26</v>
+      </c>
+      <c r="R73">
+        <v>111.66</v>
+      </c>
+      <c r="S73">
+        <v>0.96</v>
+      </c>
       <c r="V73" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
       </c>
       <c r="Y73">
         <v>0</v>
@@ -5412,22 +6705,25 @@
       <c r="Z73">
         <v>4.693334102630615</v>
       </c>
-      <c r="AA73" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27">
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C74">
         <v>688117</v>
       </c>
       <c r="D74" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E74">
         <v>-1.95</v>
@@ -5445,7 +6741,7 @@
         <v>40825.85</v>
       </c>
       <c r="J74" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K74">
         <v>7</v>
@@ -5465,8 +6761,23 @@
       <c r="P74">
         <v>-0.77</v>
       </c>
+      <c r="Q74">
+        <v>1.11</v>
+      </c>
+      <c r="R74">
+        <v>40.29</v>
+      </c>
+      <c r="S74">
+        <v>1.67</v>
+      </c>
       <c r="V74" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
       </c>
       <c r="Y74">
         <v>0</v>
@@ -5474,22 +6785,25 @@
       <c r="Z74">
         <v>2.317528247833252</v>
       </c>
-      <c r="AA74" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27">
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C75">
         <v>688202</v>
       </c>
       <c r="D75" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E75">
         <v>8.83</v>
@@ -5507,7 +6821,7 @@
         <v>83057.47</v>
       </c>
       <c r="J75" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K75">
         <v>12</v>
@@ -5527,8 +6841,23 @@
       <c r="P75">
         <v>0.25</v>
       </c>
+      <c r="Q75">
+        <v>3.13</v>
+      </c>
+      <c r="R75">
+        <v>68.5</v>
+      </c>
+      <c r="S75">
+        <v>6.05</v>
+      </c>
       <c r="V75" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
       </c>
       <c r="Y75">
         <v>0</v>
@@ -5536,22 +6865,25 @@
       <c r="Z75">
         <v>7.338264942169189</v>
       </c>
-      <c r="AA75" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27">
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C76">
         <v>688221</v>
       </c>
       <c r="D76" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E76">
         <v>-4.74</v>
@@ -5569,7 +6901,7 @@
         <v>81553.57000000001</v>
       </c>
       <c r="J76" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K76">
         <v>13</v>
@@ -5589,8 +6921,23 @@
       <c r="P76">
         <v>-0.75</v>
       </c>
+      <c r="Q76">
+        <v>-9.460000000000001</v>
+      </c>
+      <c r="R76">
+        <v>24.2</v>
+      </c>
+      <c r="S76">
+        <v>6.51</v>
+      </c>
       <c r="V76" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
       </c>
       <c r="Y76">
         <v>0</v>
@@ -5598,22 +6945,25 @@
       <c r="Z76">
         <v>5.543642044067383</v>
       </c>
-      <c r="AA76" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27">
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C77">
         <v>688222</v>
       </c>
       <c r="D77" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E77">
         <v>-2.8</v>
@@ -5631,7 +6981,7 @@
         <v>95637.27</v>
       </c>
       <c r="J77" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K77">
         <v>4</v>
@@ -5651,8 +7001,23 @@
       <c r="P77">
         <v>-0.32</v>
       </c>
+      <c r="Q77">
+        <v>0.75</v>
+      </c>
+      <c r="R77">
+        <v>25.93</v>
+      </c>
+      <c r="S77">
+        <v>8.220000000000001</v>
+      </c>
       <c r="V77" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>1</v>
       </c>
       <c r="Y77">
         <v>0</v>
@@ -5660,22 +7025,25 @@
       <c r="Z77">
         <v>2.352163553237915</v>
       </c>
-      <c r="AA77" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27">
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C78">
         <v>688257</v>
       </c>
       <c r="D78" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E78">
         <v>-10.31</v>
@@ -5693,7 +7061,7 @@
         <v>50160.97</v>
       </c>
       <c r="J78" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -5713,8 +7081,23 @@
       <c r="P78">
         <v>-1.05</v>
       </c>
+      <c r="Q78">
+        <v>1.44</v>
+      </c>
+      <c r="R78">
+        <v>18.18</v>
+      </c>
+      <c r="S78">
+        <v>4.48</v>
+      </c>
       <c r="V78" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
       </c>
       <c r="Y78">
         <v>0</v>
@@ -5722,22 +7105,25 @@
       <c r="Z78">
         <v>7.752604961395264</v>
       </c>
-      <c r="AA78" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27">
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C79">
         <v>688313</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E79">
         <v>4.42</v>
@@ -5755,7 +7141,7 @@
         <v>200145.91</v>
       </c>
       <c r="J79" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K79">
         <v>26</v>
@@ -5775,8 +7161,23 @@
       <c r="P79">
         <v>0.48</v>
       </c>
+      <c r="Q79">
+        <v>-7.19</v>
+      </c>
+      <c r="R79">
+        <v>59.3</v>
+      </c>
+      <c r="S79">
+        <v>2.52</v>
+      </c>
       <c r="V79" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
       </c>
       <c r="Y79">
         <v>0</v>
@@ -5784,22 +7185,25 @@
       <c r="Z79">
         <v>13.91036987304688</v>
       </c>
-      <c r="AA79" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27">
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C80">
         <v>688321</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E80">
         <v>-3.95</v>
@@ -5817,7 +7221,7 @@
         <v>73278.71000000001</v>
       </c>
       <c r="J80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K80">
         <v>17</v>
@@ -5837,8 +7241,23 @@
       <c r="P80">
         <v>-0.5</v>
       </c>
+      <c r="Q80">
+        <v>-0.66</v>
+      </c>
+      <c r="R80">
+        <v>37.29</v>
+      </c>
+      <c r="S80">
+        <v>6.45</v>
+      </c>
       <c r="V80" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
       </c>
       <c r="Y80">
         <v>0</v>
@@ -5846,22 +7265,25 @@
       <c r="Z80">
         <v>10.68968391418457</v>
       </c>
-      <c r="AA80" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27">
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C81">
         <v>688360</v>
       </c>
       <c r="D81" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E81">
         <v>-4.34</v>
@@ -5879,7 +7301,7 @@
         <v>36538.22</v>
       </c>
       <c r="J81" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -5899,8 +7321,23 @@
       <c r="P81">
         <v>-0.97</v>
       </c>
+      <c r="Q81">
+        <v>1.6</v>
+      </c>
+      <c r="R81">
+        <v>23.78</v>
+      </c>
+      <c r="S81">
+        <v>5.78</v>
+      </c>
       <c r="V81" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
       </c>
       <c r="Y81">
         <v>0</v>
@@ -5908,22 +7345,25 @@
       <c r="Z81">
         <v>2.420598268508911</v>
       </c>
-      <c r="AA81" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27">
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C82">
         <v>688499</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E82">
         <v>-1.11</v>
@@ -5941,7 +7381,7 @@
         <v>80473.27</v>
       </c>
       <c r="J82" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K82">
         <v>27</v>
@@ -5961,8 +7401,23 @@
       <c r="P82">
         <v>-0.32</v>
       </c>
+      <c r="Q82">
+        <v>-0.42</v>
+      </c>
+      <c r="R82">
+        <v>55.3</v>
+      </c>
+      <c r="S82">
+        <v>4.99</v>
+      </c>
       <c r="V82" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
       </c>
       <c r="Y82">
         <v>0</v>
@@ -5970,22 +7425,25 @@
       <c r="Z82">
         <v>3.292084455490112</v>
       </c>
-      <c r="AA82" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27">
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C83">
         <v>688500</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E83">
         <v>8.029999999999999</v>
@@ -6003,7 +7461,7 @@
         <v>31336.2</v>
       </c>
       <c r="J83" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -6023,8 +7481,23 @@
       <c r="P83">
         <v>0.35</v>
       </c>
+      <c r="Q83">
+        <v>-1.79</v>
+      </c>
+      <c r="R83">
+        <v>69.02</v>
+      </c>
+      <c r="S83">
+        <v>3.01</v>
+      </c>
       <c r="V83" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
       </c>
       <c r="Y83">
         <v>0</v>
@@ -6032,22 +7505,25 @@
       <c r="Z83">
         <v>1.699688673019409</v>
       </c>
-      <c r="AA83" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27">
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C84">
         <v>688553</v>
       </c>
       <c r="D84" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E84">
         <v>-1.24</v>
@@ -6065,7 +7541,7 @@
         <v>24009.75</v>
       </c>
       <c r="J84" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K84">
         <v>5</v>
@@ -6085,8 +7561,23 @@
       <c r="P84">
         <v>-0.37</v>
       </c>
+      <c r="Q84">
+        <v>0.88</v>
+      </c>
+      <c r="R84">
+        <v>23.09</v>
+      </c>
+      <c r="S84">
+        <v>7.35</v>
+      </c>
       <c r="V84" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>1</v>
       </c>
       <c r="Y84">
         <v>0</v>
@@ -6094,22 +7585,25 @@
       <c r="Z84">
         <v>0.4941184222698212</v>
       </c>
-      <c r="AA84" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27">
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C85">
         <v>688668</v>
       </c>
       <c r="D85" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E85">
         <v>-0.87</v>
@@ -6127,7 +7621,7 @@
         <v>54053.21</v>
       </c>
       <c r="J85" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K85">
         <v>5</v>
@@ -6147,8 +7641,23 @@
       <c r="P85">
         <v>-0.26</v>
       </c>
+      <c r="Q85">
+        <v>1.07</v>
+      </c>
+      <c r="R85">
+        <v>81.89</v>
+      </c>
+      <c r="S85">
+        <v>5.09</v>
+      </c>
       <c r="V85" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
       </c>
       <c r="Y85">
         <v>0</v>
@@ -6156,22 +7665,25 @@
       <c r="Z85">
         <v>1.824205994606018</v>
       </c>
-      <c r="AA85" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27">
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C86">
         <v>688799</v>
       </c>
       <c r="D86" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E86">
         <v>-3.66</v>
@@ -6189,7 +7701,7 @@
         <v>35500.6</v>
       </c>
       <c r="J86" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K86">
         <v>11</v>
@@ -6209,8 +7721,23 @@
       <c r="P86">
         <v>-0.57</v>
       </c>
+      <c r="Q86">
+        <v>-2.39</v>
+      </c>
+      <c r="R86">
+        <v>56.97</v>
+      </c>
+      <c r="S86">
+        <v>1.73</v>
+      </c>
       <c r="V86" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
       </c>
       <c r="Y86">
         <v>0</v>
@@ -6218,8 +7745,11 @@
       <c r="Z86">
         <v>2.389276266098022</v>
       </c>
-      <c r="AA86" t="s">
-        <v>162</v>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
